--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1910382.280686751</v>
+        <v>1888633.800945038</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12062936.15886391</v>
+        <v>12062936.15886392</v>
       </c>
     </row>
     <row r="8">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.9524625330066</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>175.0488076901377</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>58.9389132689145</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>149.2419515106231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>275.2645553046536</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>152.5938874041483</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.38888126668057</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>263.8712335631122</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>263.1748849662977</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>209.7977544545967</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>219.5996478378404</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>330.5086005919928</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>240.773104072364</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>74.75769145492426</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>189.2133623690049</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>194.6677722798918</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>196.2481634922827</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>160.697788335311</v>
       </c>
       <c r="G26" t="n">
-        <v>165.077663569456</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>144.752093348593</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>16.11751339229381</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>28.93382893562068</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>57.22579106484415</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>257.501934375609</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>18.37595373060325</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>84.6947366044287</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.0955237083907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>168.1827879428039</v>
       </c>
       <c r="V35" t="n">
-        <v>318.8808837491596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.38006817584838</v>
+        <v>9.779728886661619</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>192.3249920210349</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>306.9555681507781</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>97.37081493391463</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.00352625391714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>200.8052136229452</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>77.42639794035743</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.75177172097308</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.642306573883445</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>317.3704470008169</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>64.921090600635</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>56.00855464855959</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>127.3165365479904</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1617.939223126803</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653546</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392466</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.800296392466</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>1867.760292261306</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.993676830833</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.890809956476</v>
       </c>
       <c r="V13" t="n">
-        <v>1273.262145272047</v>
+        <v>1102.206321750589</v>
       </c>
       <c r="W13" t="n">
-        <v>1273.262145272047</v>
+        <v>812.7891517136285</v>
       </c>
       <c r="X13" t="n">
-        <v>1273.262145272047</v>
+        <v>584.7996008156111</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410104</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410104</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2807.649436607934</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.183678346854</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1077.509095448719</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C16" t="n">
-        <v>908.5729125208122</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D16" t="n">
-        <v>758.4562731084765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>610.5431795260833</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>463.653232028173</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>295.9503954028919</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>149.7332086207497</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.842048484846</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.157560278959</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.157560278959</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>1259.157560278959</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>1259.157560278959</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1528.069587875905</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="C17" t="n">
-        <v>1159.107070935494</v>
+        <v>1789.055335321089</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>1430.789636714338</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1045.001384116094</v>
       </c>
       <c r="F17" t="n">
-        <v>481.584566587187</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176919</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W17" t="n">
-        <v>2678.274518176919</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X17" t="n">
-        <v>2304.808759915839</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y17" t="n">
-        <v>1914.669427940027</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>624.6477645191717</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C19" t="n">
-        <v>624.6477645191717</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
         <v>624.6477645191717</v>
@@ -5670,22 +5670,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5700,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1356.675339798491</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1356.675339798491</v>
+        <v>1212.094667550861</v>
       </c>
       <c r="W19" t="n">
-        <v>1067.258169761531</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X19" t="n">
-        <v>845.4403436627018</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y19" t="n">
-        <v>624.6477645191717</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1559.116588708439</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C20" t="n">
-        <v>1190.154071768027</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,7 +5752,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5791,13 +5791,13 @@
         <v>3009.337405520488</v>
       </c>
       <c r="W20" t="n">
-        <v>2656.568750250374</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X20" t="n">
-        <v>2283.102991989294</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y20" t="n">
-        <v>1892.963660013482</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.0249360836221</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>142.0249360836221</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>142.0249360836221</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
         <v>66.51211643218342</v>
@@ -5913,16 +5913,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672848</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368017</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621301</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251695</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271522</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.0249360836221</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1381.278680221568</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C23" t="n">
-        <v>1381.278680221568</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D23" t="n">
-        <v>1381.278680221568</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.483610522581</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.017852261501</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y23" t="n">
-        <v>1767.878520285689</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>362.8459426266613</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>362.8459426266613</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218342</v>
@@ -6177,22 +6177,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.378195741296</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1537.378195741296</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V25" t="n">
-        <v>1282.693707535409</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W25" t="n">
-        <v>993.2765374984485</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X25" t="n">
-        <v>765.2869866004312</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y25" t="n">
-        <v>544.4944074569011</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1285.591601078694</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C26" t="n">
-        <v>916.6290841382827</v>
+        <v>1270.470666346907</v>
       </c>
       <c r="D26" t="n">
-        <v>916.6290841382827</v>
+        <v>912.2049677401565</v>
       </c>
       <c r="E26" t="n">
-        <v>530.8408315400384</v>
+        <v>526.4167151419122</v>
       </c>
       <c r="F26" t="n">
-        <v>530.8408315400384</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
         <v>364.0957168234162</v>
@@ -6226,16 +6226,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2788.565186649822</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W26" t="n">
-        <v>2435.796531379708</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X26" t="n">
-        <v>2062.330773118628</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y26" t="n">
-        <v>1672.191441142816</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>798.5065461617548</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C28" t="n">
-        <v>629.570363233848</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="D28" t="n">
-        <v>479.4537238215122</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E28" t="n">
-        <v>331.5406302391191</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F28" t="n">
         <v>331.5406302391191</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.561731926973</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.144561890012</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X28" t="n">
-        <v>980.1550109919946</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y28" t="n">
-        <v>980.1550109919946</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1238.038871968309</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C29" t="n">
-        <v>869.0763550278978</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D29" t="n">
-        <v>510.8106564211473</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E29" t="n">
-        <v>510.8106564211473</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F29" t="n">
-        <v>510.8106564211473</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G29" t="n">
-        <v>95.73820626614372</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008243</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.638712032431</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>441.1652223009119</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C31" t="n">
-        <v>272.229039373005</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>272.229039373005</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3159457906119</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>124.3159457906119</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>124.3159457906119</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>124.3159457906119</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1615.697475415547</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="V31" t="n">
-        <v>1361.01298720966</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="W31" t="n">
-        <v>1071.595817172699</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X31" t="n">
-        <v>843.6062662746817</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y31" t="n">
-        <v>622.8136871311516</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.798686923957</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6730,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2788.565186649822</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2770.00361722497</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X32" t="n">
-        <v>2396.53785896389</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>2006.398526988078</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
         <v>66.51211643218342</v>
@@ -6885,25 +6885,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.4482993600903</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1647.321240915451</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C35" t="n">
-        <v>1278.358723975039</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6970,19 +6970,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993393</v>
+        <v>2949.746470010763</v>
       </c>
       <c r="V35" t="n">
-        <v>2797.526171216464</v>
+        <v>2618.683582667192</v>
       </c>
       <c r="W35" t="n">
-        <v>2797.526171216464</v>
+        <v>2265.914927397077</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.060412955384</v>
+        <v>1892.449169135998</v>
       </c>
       <c r="Y35" t="n">
-        <v>2033.921080979572</v>
+        <v>1502.309837160186</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1640.204086189706</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C37" t="n">
-        <v>1471.267903261799</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>3103.839206178697</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>2814.73633930434</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V37" t="n">
-        <v>2560.051851098453</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W37" t="n">
-        <v>2270.634681061493</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X37" t="n">
-        <v>2042.645130163475</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y37" t="n">
-        <v>1821.852551019945</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1632.511388127729</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.548871187317</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D38" t="n">
-        <v>905.2831725805665</v>
+        <v>558.3633855315322</v>
       </c>
       <c r="E38" t="n">
-        <v>519.4949199823222</v>
+        <v>558.3633855315322</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7204,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883007</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W38" t="n">
-        <v>2719.306689612893</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X38" t="n">
-        <v>2409.250560167662</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y38" t="n">
-        <v>2019.11122819185</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>994.2880032601528</v>
+        <v>748.9478110984675</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3518203322459</v>
+        <v>580.0116281705606</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2351809199101</v>
+        <v>429.8949887582248</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>429.8949887582248</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396066</v>
+        <v>429.8949887582248</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>262.1921521329438</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7368,16 +7368,16 @@
         <v>1513.842048484845</v>
       </c>
       <c r="V40" t="n">
-        <v>1513.842048484845</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.424878447885</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X40" t="n">
-        <v>1224.424878447885</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y40" t="n">
-        <v>1175.936468090393</v>
+        <v>748.9478110984675</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.798686923957</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C41" t="n">
-        <v>1250.836169983545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7414,13 +7414,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3122.772272495085</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>3122.772272495085</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W41" t="n">
-        <v>2770.00361722497</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="X41" t="n">
-        <v>2396.53785896389</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y41" t="n">
-        <v>2006.398526988078</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1613.372232979947</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C43" t="n">
-        <v>1613.372232979947</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="D43" t="n">
-        <v>1613.372232979947</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E43" t="n">
-        <v>1613.372232979947</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>1466.482285482036</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>2822.322864763051</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>2533.219997888694</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>2533.219997888694</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>2243.802827851734</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>2015.813276953716</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>1795.020697810186</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1881.708680670284</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C44" t="n">
-        <v>1881.708680670284</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D44" t="n">
-        <v>1523.442982063533</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="E44" t="n">
-        <v>1137.654729465289</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="F44" t="n">
-        <v>726.6688246756817</v>
+        <v>547.1614257797476</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>132.088975624744</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734406</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y44" t="n">
-        <v>2268.308520734406</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>270.9995076393842</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C46" t="n">
-        <v>270.9995076393842</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D46" t="n">
-        <v>270.9995076393842</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E46" t="n">
-        <v>123.0864140569911</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>123.0864140569911</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>123.0864140569911</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.6479724696239</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029329</v>
+        <v>111.3760925029322</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570364</v>
+        <v>115.6728628570354</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411537</v>
+        <v>106.2279079411523</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950872</v>
+        <v>86.20968475950721</v>
       </c>
       <c r="N2" t="n">
-        <v>82.94423508449646</v>
+        <v>82.94423508449492</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470382</v>
+        <v>91.79185002470237</v>
       </c>
       <c r="P2" t="n">
-        <v>113.191716133705</v>
+        <v>113.1917161337037</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283652</v>
+        <v>133.6616048283643</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131299</v>
+        <v>85.34276391131255</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932096048</v>
+        <v>66.92010932095974</v>
       </c>
       <c r="L3" t="n">
-        <v>43.19189982519309</v>
+        <v>43.1918998251921</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85051777249959</v>
+        <v>30.85051777249842</v>
       </c>
       <c r="N3" t="n">
-        <v>17.1128523957738</v>
+        <v>17.11285239577261</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948262</v>
+        <v>38.09915424948154</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666627</v>
+        <v>50.10627990666539</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.91815189430272</v>
+        <v>83.91815189430216</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.23379249476912</v>
+        <v>86.23379249476868</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14168867079371</v>
+        <v>80.14168867079314</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904563028</v>
+        <v>81.20697904562968</v>
       </c>
       <c r="N4" t="n">
-        <v>71.3391637359551</v>
+        <v>71.33916373595451</v>
       </c>
       <c r="O4" t="n">
-        <v>86.41153592235811</v>
+        <v>86.41153592235757</v>
       </c>
       <c r="P4" t="n">
-        <v>93.19451333315433</v>
+        <v>93.19451333315386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321937</v>
+        <v>14.48187344321936</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.781379130474</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>211.1891309659158</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>130.8301120625274</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>102.8956918132049</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>90.00833646635391</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>196.6470813132647</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>130.3466769161723</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>13.96353914315752</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>90.81180805757077</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>143.7011607754138</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>42.33988886923134</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>6.11000755119673</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.22524107148774</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>124.4997876986435</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>71.67627119164491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>192.7170077032569</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>191.5701663761618</v>
       </c>
     </row>
     <row r="24">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>23.30078578388651</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>251.2246074419157</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>246.1782574064004</v>
       </c>
       <c r="G26" t="n">
-        <v>245.8440620839975</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.863379669619405</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>236.0201299315342</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>265.6739354516998</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,13 +24736,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>39.12662934499394</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>28.70990383000384</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>330.8650149868097</v>
+        <v>222.7020862222421</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.48912964370405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>82.81238401609812</v>
       </c>
       <c r="V35" t="n">
-        <v>8.871374720975325</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>142.235404842364</v>
+        <v>138.8357441315507</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>214.5510537206765</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>62.77553252769093</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>47.38419998040615</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>170.5811270981777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>50.18995833595679</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>271.8145707770556</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>68.86370129723927</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>164.3835016851448</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>93.5512786526366</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>229.6866737866854</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>88.74646026576119</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.26811680410442</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>885087.4060159641</v>
+        <v>885087.4060159636</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>709413.100295597</v>
+        <v>709413.1002955969</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>709413.1002955969</v>
+        <v>709413.100295597</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>709413.1002955969</v>
+        <v>709413.100295597</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709413.100295597</v>
+        <v>709413.1002955971</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>709413.1002955969</v>
+        <v>709413.1002955971</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>709413.100295597</v>
+        <v>709413.1002955972</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594022.7176354425</v>
+        <v>594022.7176354429</v>
       </c>
       <c r="C2" t="n">
         <v>594029.8145386983</v>
       </c>
       <c r="D2" t="n">
-        <v>594035.8503329169</v>
+        <v>594035.8503329171</v>
       </c>
       <c r="E2" t="n">
-        <v>494445.7935078349</v>
+        <v>494445.7935078351</v>
       </c>
       <c r="F2" t="n">
+        <v>494445.7935078351</v>
+      </c>
+      <c r="G2" t="n">
         <v>494445.7935078347</v>
-      </c>
-      <c r="G2" t="n">
-        <v>494445.7935078348</v>
       </c>
       <c r="H2" t="n">
         <v>494445.7935078347</v>
       </c>
       <c r="I2" t="n">
-        <v>494445.7935078346</v>
+        <v>494445.7935078351</v>
       </c>
       <c r="J2" t="n">
-        <v>494445.7935078347</v>
+        <v>494445.7935078351</v>
       </c>
       <c r="K2" t="n">
+        <v>494445.7935078351</v>
+      </c>
+      <c r="L2" t="n">
+        <v>494445.793507835</v>
+      </c>
+      <c r="M2" t="n">
+        <v>494445.793507835</v>
+      </c>
+      <c r="N2" t="n">
         <v>494445.7935078348</v>
       </c>
-      <c r="L2" t="n">
-        <v>494445.7935078348</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>494445.7935078351</v>
+      </c>
+      <c r="P2" t="n">
         <v>494445.7935078349</v>
-      </c>
-      <c r="N2" t="n">
-        <v>494445.7935078351</v>
-      </c>
-      <c r="O2" t="n">
-        <v>494445.793507835</v>
-      </c>
-      <c r="P2" t="n">
-        <v>494445.7935078351</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190573</v>
+        <v>196760.0786190593</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598441</v>
+        <v>27855.40645598246</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>914243.4502001549</v>
+        <v>914243.4502001547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380921.8743427966</v>
+        <v>380921.874342796</v>
       </c>
       <c r="C4" t="n">
         <v>372681.4073629099</v>
@@ -26426,13 +26426,13 @@
         <v>365935.2983003609</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211607</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
-        <v>10990.29103211607</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
-        <v>10990.29103211607</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="H4" t="n">
         <v>10990.29103211609</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598075</v>
+        <v>38078.94064598079</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26478,16 +26478,16 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21738.17597239213</v>
+        <v>-21780.67823157129</v>
       </c>
       <c r="C6" t="n">
-        <v>154747.1958886573</v>
+        <v>154704.9383502832</v>
       </c>
       <c r="D6" t="n">
-        <v>166506.8205458584</v>
+        <v>166464.7711383175</v>
       </c>
       <c r="E6" t="n">
-        <v>-505094.2882858294</v>
+        <v>-508570.4775838901</v>
       </c>
       <c r="F6" t="n">
-        <v>409149.1619143253</v>
+        <v>405672.9726162646</v>
       </c>
       <c r="G6" t="n">
-        <v>409149.1619143254</v>
+        <v>405672.9726162642</v>
       </c>
       <c r="H6" t="n">
-        <v>409149.1619143253</v>
+        <v>405672.9726162642</v>
       </c>
       <c r="I6" t="n">
-        <v>409149.1619143254</v>
+        <v>405672.9726162647</v>
       </c>
       <c r="J6" t="n">
-        <v>409149.1619143253</v>
+        <v>405672.9726162646</v>
       </c>
       <c r="K6" t="n">
-        <v>409149.1619143254</v>
+        <v>405672.9726162646</v>
       </c>
       <c r="L6" t="n">
-        <v>409149.1619143254</v>
+        <v>405672.9726162645</v>
       </c>
       <c r="M6" t="n">
-        <v>201960.5936222524</v>
+        <v>198484.4043241916</v>
       </c>
       <c r="N6" t="n">
-        <v>409149.1619143257</v>
+        <v>405672.9726162643</v>
       </c>
       <c r="O6" t="n">
-        <v>409149.1619143256</v>
+        <v>405672.9726162646</v>
       </c>
       <c r="P6" t="n">
-        <v>409149.1619143257</v>
+        <v>405672.9726162644</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890252</v>
+        <v>204.1899378890274</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26746,16 +26746,16 @@
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890252</v>
+        <v>204.1899378890274</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023696896</v>
+        <v>30.59010023696682</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>828.9803080758337</v>
+        <v>828.9803080758335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.0681279392607</v>
+        <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378767</v>
+        <v>178.8295274378764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.30551518367639</v>
+        <v>98.30551518367585</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3146295474668</v>
+        <v>190.3146295474666</v>
       </c>
       <c r="T2" t="n">
-        <v>219.5025170893205</v>
+        <v>219.5025170893204</v>
       </c>
       <c r="U2" t="n">
         <v>251.2799837820832</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.9043161647324</v>
+        <v>136.9043161647323</v>
       </c>
       <c r="H3" t="n">
-        <v>107.9936872248773</v>
+        <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>74.27501952661463</v>
+        <v>74.27501952661447</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361443</v>
+        <v>72.88884584361415</v>
       </c>
       <c r="S3" t="n">
         <v>163.5252051891206</v>
@@ -27557,10 +27557,10 @@
         <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>144.3773550168174</v>
+        <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383754</v>
+        <v>67.32663672383728</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045158</v>
+        <v>55.32936263045126</v>
       </c>
       <c r="R4" t="n">
-        <v>160.7372695280036</v>
+        <v>160.7372695280034</v>
       </c>
       <c r="S4" t="n">
-        <v>217.5996781856073</v>
+        <v>217.5996781856072</v>
       </c>
       <c r="T4" t="n">
         <v>226.3723226937267</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156787</v>
+        <v>0.8208640719156872</v>
       </c>
       <c r="H2" t="n">
-        <v>8.406674176506447</v>
+        <v>8.406674176506534</v>
       </c>
       <c r="I2" t="n">
-        <v>31.64636213252923</v>
+        <v>31.64636213252956</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375339</v>
+        <v>69.66981202375412</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879441</v>
+        <v>104.4169881879452</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288336</v>
+        <v>129.5385070288349</v>
       </c>
       <c r="M2" t="n">
-        <v>144.136548467764</v>
+        <v>144.1365484677655</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4688285120945</v>
+        <v>146.468828512096</v>
       </c>
       <c r="O2" t="n">
-        <v>138.3063613969829</v>
+        <v>138.3063613969844</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215646</v>
+        <v>118.0412796215658</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608431</v>
+        <v>88.64408504608524</v>
       </c>
       <c r="R2" t="n">
-        <v>51.5636027574733</v>
+        <v>51.56360275747384</v>
       </c>
       <c r="S2" t="n">
-        <v>18.70544003877855</v>
+        <v>18.70544003877874</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810885</v>
+        <v>3.593332474810923</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06566912575325429</v>
+        <v>0.06566912575325497</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782807</v>
+        <v>0.4392009984782853</v>
       </c>
       <c r="H3" t="n">
-        <v>4.241757011619185</v>
+        <v>4.24175701161923</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480045</v>
+        <v>15.12161332480061</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535371</v>
+        <v>41.49486275535414</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339852</v>
+        <v>70.92132965339925</v>
       </c>
       <c r="L3" t="n">
-        <v>95.36247995468109</v>
+        <v>95.36247995468209</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495187</v>
+        <v>111.2835161495199</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875595</v>
+        <v>114.2288596875607</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949618</v>
+        <v>104.4970901949629</v>
       </c>
       <c r="P3" t="n">
-        <v>83.86812750766397</v>
+        <v>83.86812750766485</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.06362219171879</v>
+        <v>56.06362219171937</v>
       </c>
       <c r="R3" t="n">
-        <v>27.2689883090287</v>
+        <v>27.26898830902899</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717183</v>
+        <v>8.157965914717268</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094473</v>
+        <v>1.770288235094491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02889480253146585</v>
+        <v>0.02889480253146615</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682113634064389</v>
+        <v>0.3682113634064427</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286341</v>
+        <v>3.273733758286375</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044091</v>
+        <v>11.07311991044103</v>
       </c>
       <c r="J4" t="n">
-        <v>26.03254339283523</v>
+        <v>26.0325433928355</v>
       </c>
       <c r="K4" t="n">
-        <v>42.77946567576625</v>
+        <v>42.7794656757667</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044457</v>
+        <v>54.74298761044514</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71880490197477</v>
+        <v>57.71880490197537</v>
       </c>
       <c r="N4" t="n">
-        <v>56.3463807292781</v>
+        <v>56.34638072927869</v>
       </c>
       <c r="O4" t="n">
-        <v>52.04500252948468</v>
+        <v>52.04500252948522</v>
       </c>
       <c r="P4" t="n">
-        <v>44.53349071599328</v>
+        <v>44.53349071599375</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.83268062124281</v>
+        <v>30.83268062124313</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916588</v>
+        <v>16.55612184916605</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851364938</v>
+        <v>6.416919851365004</v>
       </c>
       <c r="T4" t="n">
-        <v>1.573266734554784</v>
+        <v>1.5732667345548</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580578</v>
+        <v>0.02008425618580599</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34134,7 +34134,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003805</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
         <v>691.3565293623194</v>
@@ -34386,7 +34386,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q44" t="n">
         <v>473.099994678169</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37791,7 +37791,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -38034,7 +38034,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
